--- a/resources/experiment 1/metrics/R2/average time/Edema macular diabético.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Edema macular diabético.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9942229827643495</v>
+        <v>0.9945610105879964</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9942229827643495</v>
+        <v>0.994062998422951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9942229827643495</v>
+        <v>0.994111959866958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9958894005674134</v>
+        <v>0.9952060653613537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9958894005674134</v>
+        <v>0.9952402786154169</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9958894005674134</v>
+        <v>0.995234186784431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9771343787189349</v>
+        <v>0.9958737736289088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9771343787189349</v>
+        <v>0.9953999585243603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9771343787189349</v>
+        <v>0.9963184280664361</v>
       </c>
     </row>
   </sheetData>
